--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27990\Desktop\北风熔炉\系统文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FE355E-B086-424E-A6F9-2460BE2377B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A4FB60-8E8C-4C0F-9F59-2143E174A33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
   <si>
     <t>1.伤害类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,14 @@
   </si>
   <si>
     <t>效果UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定行动的先后顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +856,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -863,6 +870,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -886,14 +894,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>681405</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>318141</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>65943</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>65944</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,14 +938,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>117230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>656280</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>124558</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1282,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P98"/>
+  <dimension ref="B2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1294,16 +1302,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1328,173 +1336,73 @@
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="16" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1519,135 +1427,60 @@
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="7"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="7"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="26" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1672,114 +1505,50 @@
       <c r="B28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="7"/>
+      <c r="P28" s="6"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="7"/>
+      <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="7"/>
+      <c r="P30" s="6"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="7"/>
+      <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="7"/>
+      <c r="P32" s="6"/>
     </row>
     <row r="33" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1804,347 +1573,363 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="13"/>
-      <c r="H45" s="12" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="12"/>
+      <c r="H45" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="13"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="12"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="18"/>
-      <c r="H46" s="14" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="17"/>
+      <c r="H46" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="K46" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="18"/>
+      <c r="N46" s="17"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="18"/>
-      <c r="K47" s="14" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="17"/>
+      <c r="K47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L47" s="19" t="s">
+      <c r="L47" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="15"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="18"/>
-      <c r="H48" s="11" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="17"/>
+      <c r="H48" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="18"/>
-      <c r="H49" s="12" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="17"/>
+      <c r="H49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="K49" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L49" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="16"/>
-      <c r="N49" s="13"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="12"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="18"/>
-      <c r="H50" s="14" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="17"/>
+      <c r="H50" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="K50" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M50" s="6"/>
-      <c r="N50" s="18"/>
+      <c r="N50" s="17"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="15"/>
-      <c r="K51" s="14" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="17"/>
+      <c r="K51" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L51" s="19" t="s">
+      <c r="L51" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="15"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="14"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="14"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L58" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="12" t="s">
+      <c r="D59" s="12"/>
+      <c r="F59" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G59" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="13"/>
-      <c r="L56" s="12" t="s">
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="12"/>
+      <c r="L59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M56" s="16" t="s">
+      <c r="M59" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="N56" s="16"/>
-      <c r="O56" s="13"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
+      <c r="N59" s="15"/>
+      <c r="O59" s="12"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="17" t="s">
+      <c r="D60" s="17"/>
+      <c r="F60" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="18"/>
-      <c r="L57" s="17" t="s">
+      <c r="J60" s="17"/>
+      <c r="L60" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M57" s="6" t="s">
+      <c r="M60" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N57" s="6"/>
-      <c r="O57" s="18"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="14" t="s">
+      <c r="O60" s="17"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C61" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="14" t="s">
+      <c r="D61" s="14"/>
+      <c r="F61" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G61" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="15"/>
-      <c r="L58" s="17" t="s">
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="14"/>
+      <c r="L61" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M58" s="6" t="s">
+      <c r="M61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N58" s="6"/>
-      <c r="O58" s="18"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="L59" s="14" t="s">
+      <c r="O61" s="17"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L62" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="M59" s="19" t="s">
+      <c r="M62" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="N59" s="19"/>
-      <c r="O59" s="15"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="N62" s="18"/>
+      <c r="O62" s="14"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="20" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="11" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="11" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="s">
         <v>104</v>
       </c>
     </row>

--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A4FB60-8E8C-4C0F-9F59-2143E174A33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F56B08-A534-488A-85B2-CAB5402ABB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,10 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚弱抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>额外受到25%雷元素伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,6 +593,10 @@
   </si>
   <si>
     <t>判定行动的先后顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱抗性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -870,7 +870,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1259,27 +1258,27 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1292,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1559,12 +1558,12 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -1617,11 +1616,9 @@
       <c r="B46" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
       <c r="F46" s="17"/>
       <c r="H46" s="13" t="s">
         <v>37</v>
@@ -1641,11 +1638,9 @@
       <c r="B47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
       <c r="F47" s="17"/>
       <c r="K47" s="13" t="s">
         <v>50</v>
@@ -1660,11 +1655,9 @@
       <c r="B48" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
       <c r="F48" s="17"/>
       <c r="H48" s="10" t="s">
         <v>63</v>
@@ -1677,11 +1670,9 @@
       <c r="B49" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
       <c r="F49" s="17"/>
       <c r="H49" s="11" t="s">
         <v>64</v>
@@ -1702,17 +1693,15 @@
       <c r="B50" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
       <c r="F50" s="17"/>
       <c r="H50" s="13" t="s">
         <v>75</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>54</v>
@@ -1726,11 +1715,9 @@
       <c r="B51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
       <c r="F51" s="17"/>
       <c r="K51" s="13" t="s">
         <v>55</v>
@@ -1743,40 +1730,14 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="14"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
@@ -1839,7 +1800,7 @@
         <v>79</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O60" s="17"/>
     </row>
@@ -1864,16 +1825,16 @@
         <v>62</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O61" s="17"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L62" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M62" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="M62" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="N62" s="18"/>
       <c r="O62" s="14"/>
@@ -1900,7 +1861,7 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1871,7 @@
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
@@ -1920,17 +1881,17 @@
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F56B08-A534-488A-85B2-CAB5402ABB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D3EFAF-7972-4526-96F0-39A6CDA1C747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6675" yWindow="4560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="2" r:id="rId1"/>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续伤害的控制效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灼烧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>减益的控制效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麻痹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,6 +589,14 @@
   </si>
   <si>
     <t>脆弱抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续伤害的异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减益的异常状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,32 +1253,32 @@
   <sheetData>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1292,7 @@
   <dimension ref="B2:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1558,12 +1558,12 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>64</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>53</v>
@@ -1698,10 +1698,10 @@
       </c>
       <c r="F50" s="17"/>
       <c r="H50" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>54</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -1749,10 +1749,10 @@
         <v>60</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
@@ -1764,43 +1764,43 @@
       </c>
       <c r="D59" s="12"/>
       <c r="F59" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="12"/>
       <c r="L59" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="12"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D60" s="17"/>
       <c r="F60" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J60" s="17"/>
       <c r="L60" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O60" s="17"/>
     </row>
@@ -1813,10 +1813,10 @@
       </c>
       <c r="D61" s="14"/>
       <c r="F61" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
@@ -1825,73 +1825,73 @@
         <v>62</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O61" s="17"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L62" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N62" s="18"/>
       <c r="O62" s="14"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D3EFAF-7972-4526-96F0-39A6CDA1C747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83B083A-0C66-4C7B-AECF-E4F8CF8D87CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6675" yWindow="4560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="2" r:id="rId1"/>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83B083A-0C66-4C7B-AECF-E4F8CF8D87CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6798E475-F45C-4E2E-A9EB-028560BD3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1292,7 +1292,7 @@
   <dimension ref="B2:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6798E475-F45C-4E2E-A9EB-028560BD3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F9704-40A1-4B89-A316-4B84050C1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1292,7 +1292,7 @@
   <dimension ref="B2:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F9704-40A1-4B89-A316-4B84050C1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B682DEC-02E1-49B3-AA4D-15F512E9DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B682DEC-02E1-49B3-AA4D-15F512E9DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F2DD1-9853-481B-B032-3CD06D445B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,14 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脆弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有抗性减少50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B.真实概率=基础概率+（我方元素属性-敌方元素属性）%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,6 +589,14 @@
   </si>
   <si>
     <t>减益的异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有抗性减少30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3B7666-A8A0-48D2-895C-605B861302BF}">
   <dimension ref="B8:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1558,12 +1558,12 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>74</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>54</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -1749,10 +1749,10 @@
         <v>60</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>75</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="12"/>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L62" s="13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="N62" s="18"/>
       <c r="O62" s="14"/>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
@@ -1881,17 +1881,17 @@
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F2DD1-9853-481B-B032-3CD06D445B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1614C13-4706-4427-879A-A7ECCD42D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
   <si>
     <t>1.伤害类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,11 +115,387 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注：红色部分最小为1，总伤害向下取整，每个元素都需要单独拥有装备或遗物影响乘区YS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身重压：造成15+0.5*力量+0.1*生命值的物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方暴击率为100%，暴击伤害为150%，力量和生命为100，则最终造成（15+50+10）*1.5=112.5=112点物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：戳刺：造成10+0.1*力量的穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方力量为100，则最终造成10+10=20点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害通常受到力量的影响，可以暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素伤害分为不同的类型，通常受到智力、元素属性、元素抗性的影响，通常不允许暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺伤害不受元素属性影响、不能暴击，可以无视护盾造成生命值伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.护盾类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾分为元素护盾、物理护盾和纯净护盾三类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾值每场战斗结束后清空，不可以跨战斗保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.人物基础属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害产生暴击的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击时的伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合回复的法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值归零角色死亡，有上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能时消耗的资源，有上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础战斗属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非战斗属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响基础属性、解锁技能槽位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值满则升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包的栏位数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗内属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯净护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡元素和物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.控制效果和异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过回合的控制效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始时受到x点火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始时受到x点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到攻击时，额外受到x点穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害减少25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：眩晕击，30%+力量*0.01的概率眩晕敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方力量为40，敌方眩晕抗性为30%，则真实概率为：30%+40%-30%=40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制和异常效果判定概率有两类，为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：冰冻术，30%概率冻结敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的控制效果对应不同的元素属性和抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该文档首次创建于2024.11.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.真实概率=基础概率+属性*技能倍率-对应抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外受到25%雷元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外受到25%火元素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木-生命和控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水-护甲和控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火-伤害和持续伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷-伤害和削弱敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.真实概率=基础概率+（我方元素属性-敌方元素属性）%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方水元素为33，敌方水元素为10，则真实概率为30%+33%-10%=53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾值类似于生命值，受到伤害时按伤害数额扣除护盾，纯净护盾在元素和物理护盾之后扣除。护盾不足时再扣除生命值，参考杀戮尖塔的护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素护盾可以抵挡元素伤害，物理护盾可以抵挡物理伤害，纯净护盾可以抵挡元素和物理伤害，且拥有纯净护盾时免疫任何控制效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.伤害表现和UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾显示UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定行动的先后顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续伤害的异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减益的异常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有抗性减少30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,7 +532,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>暴击伤害（如果暴击）</t>
+      <t>暴击伤害倍率（如果暴击）</t>
     </r>
     <r>
       <rPr>
@@ -179,22 +555,6 @@
       </rPr>
       <t>预留装备或遗物影响乘区WL1</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全身重压：造成15+0.5*力量+0.1*生命值的物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方暴击率为100%，暴击伤害为150%，力量和生命为100，则最终造成（15+50+10）*1.5=112.5=112点物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：戳刺：造成10+0.1*力量的穿刺伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方力量为100，则最终造成10+10=20点穿刺伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,6 +585,28 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暴击伤害倍率（如果暴击）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="5"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -236,367 +618,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元素伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害通常受到力量的影响，可以暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素伤害分为不同的类型，通常受到智力、元素属性、元素抗性的影响，通常不允许暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿刺伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿刺伤害不受元素属性影响、不能暴击，可以无视护盾造成生命值伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.护盾类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾分为元素护盾、物理护盾和纯净护盾三类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾值每场战斗结束后清空，不可以跨战斗保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.人物基础属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响元素伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害产生暴击的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击时的伤害倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合回复的法力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值归零角色死亡，有上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用技能时消耗的资源，有上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础战斗属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非战斗属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响基础属性、解锁技能槽位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验值满则升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包的栏位数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗内属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯净护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵挡元素伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵挡物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵挡元素和物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.控制效果和异常状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过回合的控制效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缠绕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始时受到x点火元素伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始时受到x点穿刺伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到攻击时，额外受到x点穿刺伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流血抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中毒抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻痹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成的伤害减少25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潮湿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>束缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：眩晕击，30%+力量*0.01的概率眩晕敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方力量为40，敌方眩晕抗性为30%，则真实概率为：30%+40%-30%=40%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制和异常效果判定概率有两类，为：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：冰冻术，30%概率冻结敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同的控制效果对应不同的元素属性和抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该文档首次创建于2024.11.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.真实概率=基础概率+属性*技能倍率-对应抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外受到25%雷元素伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外受到25%火元素伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木-生命和控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水-护甲和控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火-伤害和持续伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷-伤害和削弱敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.真实概率=基础概率+（我方元素属性-敌方元素属性）%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方水元素为33，敌方水元素为10，则真实概率为30%+33%-10%=53%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾值类似于生命值，受到伤害时按伤害数额扣除护盾，纯净护盾在元素和物理护盾之后扣除。护盾不足时再扣除生命值，参考杀戮尖塔的护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素护盾可以抵挡元素伤害，物理护盾可以抵挡物理伤害，纯净护盾可以抵挡元素和物理伤害，且拥有纯净护盾时免疫任何控制效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.伤害表现和UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾显示UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判定行动的先后顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脆弱抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续伤害的异常状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减益的异常状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有抗性减少30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱</t>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暴击伤害倍率（如果暴击）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：红色部分最小为1，总伤害向下取整，每个元素都需要单独拥有装备或遗物影响乘区YS1，通常情况下，元素伤害不允许暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：通常情况下，穿刺伤害不允许暴击，不计算暴击概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否暴击的判定：根据角色的暴击率属性值判定，暴击率小于100%时，暴击按暴击率的真实数值计算，暴击率大于等于100%时，暴击按100%计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +710,14 @@
       <b/>
       <sz val="12"/>
       <color theme="3"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1253,32 +1308,32 @@
   <sheetData>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1291,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1366,7 @@
     </row>
     <row r="4" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -1333,7 +1388,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P6" s="6"/>
     </row>
@@ -1353,13 +1408,16 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
+      <c r="F9" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -1402,7 +1460,7 @@
     </row>
     <row r="16" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1424,14 +1482,14 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="P19" s="6"/>
     </row>
@@ -1451,13 +1509,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P23" s="6"/>
     </row>
@@ -1480,7 +1538,7 @@
     </row>
     <row r="26" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -1502,30 +1560,33 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P32" s="6"/>
     </row>
@@ -1548,350 +1609,355 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="12"/>
       <c r="H45" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="12"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F46" s="17"/>
       <c r="H46" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N46" s="17"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F47" s="17"/>
       <c r="K47" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M47" s="18"/>
       <c r="N47" s="14"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F48" s="17"/>
       <c r="H48" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F49" s="17"/>
       <c r="H49" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K49" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="12"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F50" s="17"/>
       <c r="H50" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K50" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="N50" s="17"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F51" s="17"/>
       <c r="K51" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="14"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="14"/>
     </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D59" s="12"/>
       <c r="F59" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="12"/>
       <c r="L59" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="12"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D60" s="17"/>
       <c r="F60" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="J60" s="17"/>
       <c r="L60" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O60" s="17"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D61" s="14"/>
       <c r="F61" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="14"/>
       <c r="L61" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O61" s="17"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L62" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N62" s="18"/>
       <c r="O62" s="14"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/基础属性和特殊效果.xlsx
+++ b/基础属性和特殊效果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1614C13-4706-4427-879A-A7ECCD42D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A08E83E-C00A-4BEC-B268-7F660F5DABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="2" r:id="rId1"/>
@@ -488,14 +488,6 @@
   </si>
   <si>
     <t>减益的异常状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有抗性减少30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -644,6 +636,14 @@
   </si>
   <si>
     <t>是否暴击的判定：根据角色的暴击率属性值判定，暴击率小于100%时，暴击按暴击率的真实数值计算，暴击率大于等于100%时，暴击按100%计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有抗性减少30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1409,14 +1409,14 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="F9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P10" s="6"/>
     </row>
@@ -1489,7 +1489,7 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="6"/>
     </row>
@@ -1567,14 +1567,14 @@
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P30" s="6"/>
     </row>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
@@ -1839,10 +1839,10 @@
       <c r="I59" s="15"/>
       <c r="J59" s="12"/>
       <c r="L59" s="11" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="12"/>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L62" s="13" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="M62" s="18" t="s">
         <v>73</v>
